--- a/natmiOut/OldD0/LR-pairs_lrc2p/Oxt-Avpr1a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Oxt-Avpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Oxt</t>
   </si>
   <si>
     <t>Avpr1a</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.420499690877749</v>
+        <v>0.5822833333333334</v>
       </c>
       <c r="H2">
-        <v>0.420499690877749</v>
+        <v>1.74685</v>
       </c>
       <c r="I2">
-        <v>0.5508872614190566</v>
+        <v>0.5190008657689688</v>
       </c>
       <c r="J2">
-        <v>0.5508872614190566</v>
+        <v>0.5190008657689686</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.06127634869451</v>
+        <v>0.3710656666666667</v>
       </c>
       <c r="N2">
-        <v>4.06127634869451</v>
+        <v>1.113197</v>
       </c>
       <c r="O2">
-        <v>0.4129845092497293</v>
+        <v>0.03569378523095436</v>
       </c>
       <c r="P2">
-        <v>0.4129845092497293</v>
+        <v>0.03569378523095435</v>
       </c>
       <c r="Q2">
-        <v>1.707765449195155</v>
+        <v>0.2160653532722223</v>
       </c>
       <c r="R2">
-        <v>1.707765449195155</v>
+        <v>1.94458817945</v>
       </c>
       <c r="S2">
-        <v>0.2275079053090765</v>
+        <v>0.01852510543743694</v>
       </c>
       <c r="T2">
-        <v>0.2275079053090765</v>
+        <v>0.01852510543743693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.420499690877749</v>
+        <v>0.5822833333333334</v>
       </c>
       <c r="H3">
-        <v>0.420499690877749</v>
+        <v>1.74685</v>
       </c>
       <c r="I3">
-        <v>0.5508872614190566</v>
+        <v>0.5190008657689688</v>
       </c>
       <c r="J3">
-        <v>0.5508872614190566</v>
+        <v>0.5190008657689686</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.77269140973945</v>
+        <v>4.128773333333333</v>
       </c>
       <c r="N3">
-        <v>5.77269140973945</v>
+        <v>12.38632</v>
       </c>
       <c r="O3">
-        <v>0.5870154907502707</v>
+        <v>0.3971575973362078</v>
       </c>
       <c r="P3">
-        <v>0.5870154907502707</v>
+        <v>0.3971575973362078</v>
       </c>
       <c r="Q3">
-        <v>2.427414953328076</v>
+        <v>2.404115899111111</v>
       </c>
       <c r="R3">
-        <v>2.427414953328076</v>
+        <v>21.637043092</v>
       </c>
       <c r="S3">
-        <v>0.3233793561099802</v>
+        <v>0.2061251368642153</v>
       </c>
       <c r="T3">
-        <v>0.3233793561099802</v>
+        <v>0.2061251368642153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.342813822298366</v>
+        <v>0.5822833333333334</v>
       </c>
       <c r="H4">
-        <v>0.342813822298366</v>
+        <v>1.74685</v>
       </c>
       <c r="I4">
-        <v>0.4491127385809433</v>
+        <v>0.5190008657689688</v>
       </c>
       <c r="J4">
-        <v>0.4491127385809433</v>
+        <v>0.5190008657689686</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.06127634869451</v>
+        <v>5.895967</v>
       </c>
       <c r="N4">
-        <v>4.06127634869451</v>
+        <v>17.687901</v>
       </c>
       <c r="O4">
-        <v>0.4129845092497293</v>
+        <v>0.5671486174328377</v>
       </c>
       <c r="P4">
-        <v>0.4129845092497293</v>
+        <v>0.5671486174328378</v>
       </c>
       <c r="Q4">
-        <v>1.392261668505916</v>
+        <v>3.433123317983334</v>
       </c>
       <c r="R4">
-        <v>1.392261668505916</v>
+        <v>30.89810986185</v>
       </c>
       <c r="S4">
-        <v>0.1854766039406529</v>
+        <v>0.2943506234673164</v>
       </c>
       <c r="T4">
-        <v>0.1854766039406529</v>
+        <v>0.2943506234673164</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.4682733333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.40482</v>
+      </c>
+      <c r="I5">
+        <v>0.4173814559060953</v>
+      </c>
+      <c r="J5">
+        <v>0.4173814559060952</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.3710656666666667</v>
+      </c>
+      <c r="N5">
+        <v>1.113197</v>
+      </c>
+      <c r="O5">
+        <v>0.03569378523095436</v>
+      </c>
+      <c r="P5">
+        <v>0.03569378523095435</v>
+      </c>
+      <c r="Q5">
+        <v>0.1737601566155555</v>
+      </c>
+      <c r="R5">
+        <v>1.56384140954</v>
+      </c>
+      <c r="S5">
+        <v>0.01489792404649521</v>
+      </c>
+      <c r="T5">
+        <v>0.01489792404649521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.4682733333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.40482</v>
+      </c>
+      <c r="I6">
+        <v>0.4173814559060953</v>
+      </c>
+      <c r="J6">
+        <v>0.4173814559060952</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.128773333333333</v>
+      </c>
+      <c r="N6">
+        <v>12.38632</v>
+      </c>
+      <c r="O6">
+        <v>0.3971575973362078</v>
+      </c>
+      <c r="P6">
+        <v>0.3971575973362078</v>
+      </c>
+      <c r="Q6">
+        <v>1.933394451377778</v>
+      </c>
+      <c r="R6">
+        <v>17.4005500624</v>
+      </c>
+      <c r="S6">
+        <v>0.1657662162003532</v>
+      </c>
+      <c r="T6">
+        <v>0.1657662162003531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.4682733333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.40482</v>
+      </c>
+      <c r="I7">
+        <v>0.4173814559060953</v>
+      </c>
+      <c r="J7">
+        <v>0.4173814559060952</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.895967</v>
+      </c>
+      <c r="N7">
+        <v>17.687901</v>
+      </c>
+      <c r="O7">
+        <v>0.5671486174328377</v>
+      </c>
+      <c r="P7">
+        <v>0.5671486174328378</v>
+      </c>
+      <c r="Q7">
+        <v>2.760924120313333</v>
+      </c>
+      <c r="R7">
+        <v>24.84831708282</v>
+      </c>
+      <c r="S7">
+        <v>0.2367173156592469</v>
+      </c>
+      <c r="T7">
+        <v>0.2367173156592469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.342813822298366</v>
-      </c>
-      <c r="H5">
-        <v>0.342813822298366</v>
-      </c>
-      <c r="I5">
-        <v>0.4491127385809433</v>
-      </c>
-      <c r="J5">
-        <v>0.4491127385809433</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>5.77269140973945</v>
-      </c>
-      <c r="N5">
-        <v>5.77269140973945</v>
-      </c>
-      <c r="O5">
-        <v>0.5870154907502707</v>
-      </c>
-      <c r="P5">
-        <v>0.5870154907502707</v>
-      </c>
-      <c r="Q5">
-        <v>1.978958407121724</v>
-      </c>
-      <c r="R5">
-        <v>1.978958407121724</v>
-      </c>
-      <c r="S5">
-        <v>0.2636361346402905</v>
-      </c>
-      <c r="T5">
-        <v>0.2636361346402905</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.07137466666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.214124</v>
+      </c>
+      <c r="I8">
+        <v>0.06361767832493612</v>
+      </c>
+      <c r="J8">
+        <v>0.0636176783249361</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.3710656666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.113197</v>
+      </c>
+      <c r="O8">
+        <v>0.03569378523095436</v>
+      </c>
+      <c r="P8">
+        <v>0.03569378523095435</v>
+      </c>
+      <c r="Q8">
+        <v>0.02648468826977778</v>
+      </c>
+      <c r="R8">
+        <v>0.238362194428</v>
+      </c>
+      <c r="S8">
+        <v>0.00227075574702221</v>
+      </c>
+      <c r="T8">
+        <v>0.002270755747022209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.07137466666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.214124</v>
+      </c>
+      <c r="I9">
+        <v>0.06361767832493612</v>
+      </c>
+      <c r="J9">
+        <v>0.0636176783249361</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.128773333333333</v>
+      </c>
+      <c r="N9">
+        <v>12.38632</v>
+      </c>
+      <c r="O9">
+        <v>0.3971575973362078</v>
+      </c>
+      <c r="P9">
+        <v>0.3971575973362078</v>
+      </c>
+      <c r="Q9">
+        <v>0.2946898204088889</v>
+      </c>
+      <c r="R9">
+        <v>2.65220838368</v>
+      </c>
+      <c r="S9">
+        <v>0.02526624427163937</v>
+      </c>
+      <c r="T9">
+        <v>0.02526624427163937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.07137466666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.214124</v>
+      </c>
+      <c r="I10">
+        <v>0.06361767832493612</v>
+      </c>
+      <c r="J10">
+        <v>0.0636176783249361</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.895967</v>
+      </c>
+      <c r="N10">
+        <v>17.687901</v>
+      </c>
+      <c r="O10">
+        <v>0.5671486174328377</v>
+      </c>
+      <c r="P10">
+        <v>0.5671486174328378</v>
+      </c>
+      <c r="Q10">
+        <v>0.4208226793026666</v>
+      </c>
+      <c r="R10">
+        <v>3.787404113724</v>
+      </c>
+      <c r="S10">
+        <v>0.03608067830627452</v>
+      </c>
+      <c r="T10">
+        <v>0.03608067830627452</v>
       </c>
     </row>
   </sheetData>
